--- a/medicine/Enfance/La_Bibliothécaire/La_Bibliothécaire.xlsx
+++ b/medicine/Enfance/La_Bibliothécaire/La_Bibliothécaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Biblioth%C3%A9caire</t>
+          <t>La_Bibliothécaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Bibliothécaire est un roman de fantasy écrit par Gudule paru en 1995.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Biblioth%C3%A9caire</t>
+          <t>La_Bibliothécaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume est un élève de cinquième plutôt rêveur. Un jour, il s'endort sur sa table et son professeur de français, M. Pennac, lui demande de raconter son rêve. Guillaume raconte une étrange histoire à propos de sa vieille voisine qu'il voit écrire tous les soirs mais qui, lorsqu'elle éteint la lumière, est une jeune fille que l'on voit sortir en courant de la maison. Doudou, son meilleur ami, lui demande quelle est la suite du rêve et Guillaume lui révèle que ce qu'il a raconté devant la classe n'est autre que la réalité et que tous les soirs il reste éveillé pour la voir. 
 Le soir suivant, Guillaume prend son courage à deux mains et décide de poursuivre la jeune fille pour pouvoir lui parler. Il la suit jusqu'à la bibliothèque où elle le sauve du gardien, alerté par le bruit. Les jeunes gens font connaissance et la jeune fille lui révèle s'appeler Ida. Mais ce n'est pas tout, elle lui affirme également n'être personne d'autre que la vieille dame qu'il voit écrire tous les soirs. Ida explique qu'elle est en train d'écrire ses mémoires mais qu'elle n'a jamais pu réaliser son rêve de devenir romancière car elle n'a pas pu mettre la main sur « le grimoire », un livre qu'il serait nécessaire de posséder pour devenir écrivain, malgré sa vie passée à travailler comme bibliothécaire. Guillaume promet a Ida de l'aider à trouver ce grimoire.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Biblioth%C3%A9caire</t>
+          <t>La_Bibliothécaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guillaume, personnage principal, en classe de cinquième.
 Doudou, meilleur ami de Guillaume, il aime les mots et leurs rythmes.
